--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.369946853309931</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H2">
-        <v>0.369946853309931</v>
+        <v>1.362518</v>
       </c>
       <c r="I2">
-        <v>0.004480245833754927</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J2">
-        <v>0.004480245833754927</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N2">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O2">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P2">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q2">
-        <v>0.8729580351490934</v>
+        <v>0.3660177520666667</v>
       </c>
       <c r="R2">
-        <v>0.8729580351490934</v>
+        <v>3.2941597686</v>
       </c>
       <c r="S2">
-        <v>0.001426341692639529</v>
+        <v>0.000503469095582736</v>
       </c>
       <c r="T2">
-        <v>0.001426341692639529</v>
+        <v>0.000503469095582736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.369946853309931</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H3">
-        <v>0.369946853309931</v>
+        <v>1.362518</v>
       </c>
       <c r="I3">
-        <v>0.004480245833754927</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J3">
-        <v>0.004480245833754927</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N3">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q3">
-        <v>1.86906838124343</v>
+        <v>1.079004800387333</v>
       </c>
       <c r="R3">
-        <v>1.86906838124343</v>
+        <v>9.711043203486001</v>
       </c>
       <c r="S3">
-        <v>0.003053904141115398</v>
+        <v>0.00148420552804634</v>
       </c>
       <c r="T3">
-        <v>0.003053904141115398</v>
+        <v>0.00148420552804634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.8774527970927</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H4">
-        <v>75.8774527970927</v>
+        <v>1.362518</v>
       </c>
       <c r="I4">
-        <v>0.9189148082449307</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J4">
-        <v>0.9189148082449307</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.35968498539371</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N4">
-        <v>2.35968498539371</v>
+        <v>16.035208</v>
       </c>
       <c r="O4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q4">
-        <v>179.0468860952196</v>
+        <v>2.427584392638223</v>
       </c>
       <c r="R4">
-        <v>179.0468860952196</v>
+        <v>21.848259533744</v>
       </c>
       <c r="S4">
-        <v>0.2925478984007238</v>
+        <v>0.003339219782951174</v>
       </c>
       <c r="T4">
-        <v>0.2925478984007238</v>
+        <v>0.003339219782951174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.8774527970927</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H5">
-        <v>75.8774527970927</v>
+        <v>229.479935</v>
       </c>
       <c r="I5">
-        <v>0.9189148082449307</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J5">
-        <v>0.9189148082449307</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.05226187091684</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N5">
-        <v>5.05226187091684</v>
+        <v>2.4177</v>
       </c>
       <c r="O5">
-        <v>0.6816376275843548</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P5">
-        <v>0.6816376275843548</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q5">
-        <v>383.3527616290438</v>
+        <v>61.64595987216666</v>
       </c>
       <c r="R5">
-        <v>383.3527616290438</v>
+        <v>554.8136388495</v>
       </c>
       <c r="S5">
-        <v>0.6263669098442068</v>
+        <v>0.08479598458797245</v>
       </c>
       <c r="T5">
-        <v>0.6263669098442068</v>
+        <v>0.08479598458797245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.937972574872989</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H6">
-        <v>0.937972574872989</v>
+        <v>229.479935</v>
       </c>
       <c r="I6">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J6">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.35968498539371</v>
+        <v>2.375759</v>
       </c>
       <c r="N6">
-        <v>2.35968498539371</v>
+        <v>7.127277</v>
       </c>
       <c r="O6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q6">
-        <v>2.213319801638869</v>
+        <v>181.7296736318883</v>
       </c>
       <c r="R6">
-        <v>2.213319801638869</v>
+        <v>1635.567062686995</v>
       </c>
       <c r="S6">
-        <v>0.003616382672602347</v>
+        <v>0.2499749640758616</v>
       </c>
       <c r="T6">
-        <v>0.003616382672602347</v>
+        <v>0.2499749640758616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.937972574872989</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H7">
-        <v>0.937972574872989</v>
+        <v>229.479935</v>
       </c>
       <c r="I7">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J7">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.05226187091684</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N7">
-        <v>5.05226187091684</v>
+        <v>16.035208</v>
       </c>
       <c r="O7">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P7">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q7">
-        <v>4.738883075996493</v>
+        <v>408.8620543946089</v>
       </c>
       <c r="R7">
-        <v>4.738883075996493</v>
+        <v>3679.758489551481</v>
       </c>
       <c r="S7">
-        <v>0.007742945520494845</v>
+        <v>0.5624028003610592</v>
       </c>
       <c r="T7">
-        <v>0.007742945520494845</v>
+        <v>0.5624028003610591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.38751931623066</v>
+        <v>1.292554666666667</v>
       </c>
       <c r="H8">
-        <v>5.38751931623066</v>
+        <v>3.877664</v>
       </c>
       <c r="I8">
-        <v>0.06524561772821721</v>
+        <v>0.01516009819481108</v>
       </c>
       <c r="J8">
-        <v>0.06524561772821721</v>
+        <v>0.01516009819481108</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N8">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O8">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P8">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q8">
-        <v>12.71284843902807</v>
+        <v>1.041669805866667</v>
       </c>
       <c r="R8">
-        <v>12.71284843902807</v>
+        <v>9.3750282528</v>
       </c>
       <c r="S8">
-        <v>0.02077174964967951</v>
+        <v>0.00143285005192866</v>
       </c>
       <c r="T8">
-        <v>0.02077174964967951</v>
+        <v>0.00143285005192866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.292554666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.877664</v>
+      </c>
+      <c r="I9">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="J9">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.375759</v>
+      </c>
+      <c r="N9">
+        <v>7.127277</v>
+      </c>
+      <c r="O9">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P9">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q9">
+        <v>3.070798382325334</v>
+      </c>
+      <c r="R9">
+        <v>27.637185440928</v>
+      </c>
+      <c r="S9">
+        <v>0.004223981147189456</v>
+      </c>
+      <c r="T9">
+        <v>0.004223981147189456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.292554666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.877664</v>
+      </c>
+      <c r="I10">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="J10">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N10">
+        <v>16.035208</v>
+      </c>
+      <c r="O10">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P10">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q10">
+        <v>6.90879431045689</v>
+      </c>
+      <c r="R10">
+        <v>62.17914879411201</v>
+      </c>
+      <c r="S10">
+        <v>0.009503266995692962</v>
+      </c>
+      <c r="T10">
+        <v>0.00950326699569296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H11">
+        <v>2.888651</v>
+      </c>
+      <c r="I11">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J11">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.4177</v>
+      </c>
+      <c r="O11">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P11">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q11">
+        <v>0.7759879469666667</v>
+      </c>
+      <c r="R11">
+        <v>6.9838915227</v>
+      </c>
+      <c r="S11">
+        <v>0.001067396178563635</v>
+      </c>
+      <c r="T11">
+        <v>0.001067396178563634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H12">
+        <v>2.888651</v>
+      </c>
+      <c r="I12">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J12">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.375759</v>
+      </c>
+      <c r="N12">
+        <v>7.127277</v>
+      </c>
+      <c r="O12">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P12">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q12">
+        <v>2.287579537036334</v>
+      </c>
+      <c r="R12">
+        <v>20.588215833327</v>
+      </c>
+      <c r="S12">
+        <v>0.003146638637285224</v>
+      </c>
+      <c r="T12">
+        <v>0.003146638637285223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H13">
+        <v>2.888651</v>
+      </c>
+      <c r="I13">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J13">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N13">
+        <v>16.035208</v>
+      </c>
+      <c r="O13">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P13">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q13">
+        <v>5.146679958267557</v>
+      </c>
+      <c r="R13">
+        <v>46.32011962440801</v>
+      </c>
+      <c r="S13">
+        <v>0.007079422484871168</v>
+      </c>
+      <c r="T13">
+        <v>0.007079422484871166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.833405</v>
+      </c>
+      <c r="I14">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J14">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.4177</v>
+      </c>
+      <c r="O14">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P14">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q14">
+        <v>0.2238803631666667</v>
+      </c>
+      <c r="R14">
+        <v>2.0149232685</v>
+      </c>
+      <c r="S14">
+        <v>0.0003079545823278152</v>
+      </c>
+      <c r="T14">
+        <v>0.0003079545823278152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.833405</v>
+      </c>
+      <c r="I15">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J15">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.375759</v>
+      </c>
+      <c r="N15">
+        <v>7.127277</v>
+      </c>
+      <c r="O15">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P15">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q15">
+        <v>0.6599898097983333</v>
+      </c>
+      <c r="R15">
+        <v>5.939908288185</v>
+      </c>
+      <c r="S15">
+        <v>0.0009078370400254968</v>
+      </c>
+      <c r="T15">
+        <v>0.0009078370400254968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.833405</v>
+      </c>
+      <c r="I16">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J16">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N16">
+        <v>16.035208</v>
+      </c>
+      <c r="O16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q16">
+        <v>1.484869169248889</v>
+      </c>
+      <c r="R16">
+        <v>13.36382252324</v>
+      </c>
+      <c r="S16">
+        <v>0.002042484916317013</v>
+      </c>
+      <c r="T16">
+        <v>0.002042484916317012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.38751931623066</v>
-      </c>
-      <c r="H9">
-        <v>5.38751931623066</v>
-      </c>
-      <c r="I9">
-        <v>0.06524561772821721</v>
-      </c>
-      <c r="J9">
-        <v>0.06524561772821721</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.05226187091684</v>
-      </c>
-      <c r="N9">
-        <v>5.05226187091684</v>
-      </c>
-      <c r="O9">
-        <v>0.6816376275843548</v>
-      </c>
-      <c r="P9">
-        <v>0.6816376275843548</v>
-      </c>
-      <c r="Q9">
-        <v>27.21915842022013</v>
-      </c>
-      <c r="R9">
-        <v>27.21915842022013</v>
-      </c>
-      <c r="S9">
-        <v>0.0444738680785377</v>
-      </c>
-      <c r="T9">
-        <v>0.0444738680785377</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H17">
+        <v>17.338756</v>
+      </c>
+      <c r="I17">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J17">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.4177</v>
+      </c>
+      <c r="O17">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P17">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q17">
+        <v>4.657767820133333</v>
+      </c>
+      <c r="R17">
+        <v>41.9199103812</v>
+      </c>
+      <c r="S17">
+        <v>0.006406908240368008</v>
+      </c>
+      <c r="T17">
+        <v>0.006406908240368007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H18">
+        <v>17.338756</v>
+      </c>
+      <c r="I18">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J18">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.375759</v>
+      </c>
+      <c r="N18">
+        <v>7.127277</v>
+      </c>
+      <c r="O18">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P18">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q18">
+        <v>13.73090187193467</v>
+      </c>
+      <c r="R18">
+        <v>123.578116847412</v>
+      </c>
+      <c r="S18">
+        <v>0.01888729360246737</v>
+      </c>
+      <c r="T18">
+        <v>0.01888729360246737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H19">
+        <v>17.338756</v>
+      </c>
+      <c r="I19">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J19">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N19">
+        <v>16.035208</v>
+      </c>
+      <c r="O19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q19">
+        <v>30.89228432458312</v>
+      </c>
+      <c r="R19">
+        <v>278.030558921248</v>
+      </c>
+      <c r="S19">
+        <v>0.04249332269148985</v>
+      </c>
+      <c r="T19">
+        <v>0.04249332269148984</v>
       </c>
     </row>
   </sheetData>
